--- a/DCF Models/Standard model.xlsx
+++ b/DCF Models/Standard model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Fiduciary\investingModels\DCF Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1A170E-502F-4BF4-92AB-559206CBB538}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D421992-DB18-4BC4-80AD-2B544A6DFD1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3105" yWindow="4605" windowWidth="26730" windowHeight="15045" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
+    <workbookView xWindow="2895" yWindow="1950" windowWidth="22575" windowHeight="15045" xr2:uid="{3056AFBF-C33C-44A0-B793-E31A92920761}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>Price</t>
   </si>
@@ -87,12 +87,21 @@
   </si>
   <si>
     <t>Discount</t>
+  </si>
+  <si>
+    <t>Ticker</t>
+  </si>
+  <si>
+    <t>Company</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -122,9 +131,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B3E6B5-2ED0-4ACF-895E-E286D10A7127}">
-  <dimension ref="M2:N13"/>
+  <dimension ref="M2:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,64 +575,82 @@
       </c>
       <c r="N2" s="1"/>
     </row>
+    <row r="3" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>20</v>
+      </c>
+    </row>
     <row r="4" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M5" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M6" t="s">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <f>N4*N5</f>
         <v>0</v>
       </c>
+      <c r="N6" s="6"/>
     </row>
     <row r="7" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M7" t="s">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N7" s="2"/>
     </row>
     <row r="8" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M8" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="N8" s="2">
+        <f>N6*N7</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M9" t="s">
-        <v>6</v>
-      </c>
-      <c r="N9">
-        <f>+N6-N7+N8</f>
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N9" s="2"/>
     </row>
     <row r="10" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M10" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="2">
+        <f>+N8-N9+N10</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M12" t="s">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
         <v>8</v>
       </c>
-      <c r="N12">
+      <c r="N14" s="2">
         <f>Dash!C4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="13:14" x14ac:dyDescent="0.25">
-      <c r="M13" t="s">
+    <row r="15" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
         <v>17</v>
       </c>
-      <c r="N13" t="e">
-        <f>N12/N5</f>
+      <c r="N15" s="6" t="e">
+        <f>N14/N7</f>
         <v>#DIV/0!</v>
       </c>
     </row>
@@ -629,361 +661,471 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44922598-A76D-432E-8D6B-EF22B15EDFE4}">
-  <dimension ref="C2:DQ2"/>
+  <dimension ref="C2:DQ104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="4"/>
+    <col min="2" max="2" width="17" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
     <row r="2" spans="3:121" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="4">
         <v>2017</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="4">
         <v>2018</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="4">
         <v>2019</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="4">
         <v>2020</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="4">
         <v>2021</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="4">
         <v>2022</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="4">
         <v>2023</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="4">
         <v>2024</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="4">
         <v>2025</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="4">
         <v>2026</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="4">
         <v>2027</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="4">
         <v>2028</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="4">
         <v>2029</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="4">
         <v>2030</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="4">
         <v>2031</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="4">
         <v>2032</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="4">
         <v>2033</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="4">
         <v>2034</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="4">
         <v>2035</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="4">
         <v>2036</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="4">
         <v>2037</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="4">
         <v>2038</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="4">
         <v>2039</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" s="4">
         <v>2040</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" s="4">
         <v>2041</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="4">
         <v>2042</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" s="4">
         <v>2043</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" s="4">
         <v>2044</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" s="4">
         <v>2045</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="4">
         <v>2046</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="4">
         <v>2047</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="4">
         <v>2048</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="4">
         <v>2049</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="4">
         <v>2050</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="4">
         <v>2051</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="4">
         <v>2052</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="4">
         <v>2053</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="4">
         <v>2054</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="4">
         <v>2055</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" s="4">
         <v>2056</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" s="4">
         <v>2057</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="4">
         <v>2058</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="4">
         <v>2059</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="4">
         <v>2060</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="4">
         <v>2061</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="4">
         <v>2062</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="4">
         <v>2063</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" s="4">
         <v>2064</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" s="4">
         <v>2065</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" s="4">
         <v>2066</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" s="4">
         <v>2067</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" s="4">
         <v>2068</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" s="4">
         <v>2069</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" s="4">
         <v>2070</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" s="4">
         <v>2071</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" s="4">
         <v>2072</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" s="4">
         <v>2073</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" s="4">
         <v>2074</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" s="4">
         <v>2075</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" s="4">
         <v>2076</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" s="4">
         <v>2077</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" s="4">
         <v>2078</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" s="4">
         <v>2079</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" s="4">
         <v>2080</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" s="4">
         <v>2081</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" s="4">
         <v>2082</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" s="4">
         <v>2083</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" s="4">
         <v>2084</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" s="4">
         <v>2085</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" s="4">
         <v>2086</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" s="4">
         <v>2087</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" s="4">
         <v>2088</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" s="4">
         <v>2089</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" s="4">
         <v>2090</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" s="4">
         <v>2091</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" s="4">
         <v>2092</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" s="4">
         <v>2093</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" s="4">
         <v>2094</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" s="4">
         <v>2095</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" s="4">
         <v>2096</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" s="4">
         <v>2097</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" s="4">
         <v>2098</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" s="4">
         <v>2099</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" s="4">
         <v>2100</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" s="4">
         <v>2101</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" s="4">
         <v>2102</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" s="4">
         <v>2103</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" s="4">
         <v>2104</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" s="4">
         <v>2105</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" s="4">
         <v>2106</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" s="4">
         <v>2107</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" s="4">
         <v>2108</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" s="4">
         <v>2109</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" s="4">
         <v>2110</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" s="4">
         <v>2111</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" s="4">
         <v>2112</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" s="4">
         <v>2113</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" s="4">
         <v>2114</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" s="4">
         <v>2115</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" s="4">
         <v>2116</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" s="4">
         <v>2117</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" s="4">
         <v>2118</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" s="4">
         <v>2119</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" s="4">
         <v>2120</v>
       </c>
-      <c r="DO2">
+      <c r="DO2" s="4">
         <v>2121</v>
       </c>
-      <c r="DP2">
+      <c r="DP2" s="4">
         <v>2122</v>
       </c>
-      <c r="DQ2">
+      <c r="DQ2" s="4">
         <v>2123</v>
       </c>
     </row>
+    <row r="3" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:121" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="67" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="68" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="69" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="70" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="71" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="72" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="73" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="74" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="76" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="77" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="79" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="80" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="81" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="82" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="83" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="84" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="85" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="86" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="87" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="88" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="89" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="90" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="91" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="92" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="93" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="94" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="95" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="96" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="97" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="98" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="99" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="100" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="101" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="102" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="103" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="104" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="597" r:id="rId1"/>
@@ -993,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5478063-0DF5-4A99-9A0D-AA815BF05A21}">
-  <dimension ref="B2:B4"/>
+  <dimension ref="B2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,20 +1147,23 @@
     <col min="3" max="6" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>8</v>
       </c>
+      <c r="C4" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
